--- a/datos_independiente_prestamos.xlsx
+++ b/datos_independiente_prestamos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chuqui\Documents\Escritorio\CAT\TC\WEB_ROJO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chuqui\Documents\Escritorio\CAT\TC\WEB_ROJO 2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9089C3-9046-4DB8-AD7B-4ED23887750C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C357466-F300-4883-BA41-F832BCF01086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -340,7 +340,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;\ #,##0;[Red]\-&quot;$&quot;\ #,##0"/>
+    <numFmt numFmtId="5" formatCode="&quot;$&quot;\ #,##0;\-&quot;$&quot;\ #,##0"/>
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0"/>
   </numFmts>
@@ -402,7 +402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -419,11 +419,14 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -731,8 +734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,13 +753,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>46</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -797,7 +800,7 @@
       <c r="E2" s="4">
         <v>46022</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="7" t="s">
         <v>26</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -829,7 +832,7 @@
       <c r="E3" s="4">
         <v>46387</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="7" t="s">
         <v>26</v>
       </c>
       <c r="G3" s="5" t="s">
@@ -861,7 +864,7 @@
       <c r="E4" s="4">
         <v>46022</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="7" t="s">
         <v>26</v>
       </c>
       <c r="G4" s="5" t="s">
@@ -893,7 +896,7 @@
       <c r="E5" s="4">
         <v>46387</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="7" t="s">
         <v>26</v>
       </c>
       <c r="G5" s="5" t="s">
@@ -925,7 +928,7 @@
       <c r="E6" s="4">
         <v>46203</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="8">
         <v>60000</v>
       </c>
       <c r="G6" s="5" t="s">
@@ -957,7 +960,7 @@
       <c r="E7" s="4">
         <v>46203</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="7" t="s">
         <v>26</v>
       </c>
       <c r="G7" s="5" t="s">
@@ -989,7 +992,7 @@
       <c r="E8" s="4">
         <v>46022</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="7" t="s">
         <v>26</v>
       </c>
       <c r="G8" s="5" t="s">
@@ -1021,7 +1024,7 @@
       <c r="E9" s="4">
         <v>46022</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G9" s="3" t="s">
@@ -1053,7 +1056,7 @@
       <c r="E10" s="4">
         <v>46387</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="7" t="s">
         <v>26</v>
       </c>
       <c r="G10" s="5" t="s">
@@ -1085,7 +1088,7 @@
       <c r="E11" s="4">
         <v>46387</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="7" t="s">
         <v>26</v>
       </c>
       <c r="G11" s="5" t="s">
@@ -1117,7 +1120,7 @@
       <c r="E12" s="4">
         <v>46022</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="7" t="s">
         <v>26</v>
       </c>
       <c r="G12" s="5" t="s">
@@ -1149,7 +1152,7 @@
       <c r="E13" s="4">
         <v>46022</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="7" t="s">
         <v>26</v>
       </c>
       <c r="G13" s="3" t="s">
@@ -1181,7 +1184,7 @@
       <c r="E14" s="4">
         <v>46022</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="7" t="s">
         <v>26</v>
       </c>
       <c r="G14" s="5" t="s">
@@ -1213,7 +1216,7 @@
       <c r="E15" s="4">
         <v>46022</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="7" t="s">
         <v>26</v>
       </c>
       <c r="G15" s="5" t="s">
@@ -1245,7 +1248,7 @@
       <c r="E16" s="4">
         <v>46387</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="7" t="s">
         <v>26</v>
       </c>
       <c r="G16" s="3" t="s">
@@ -1277,7 +1280,7 @@
       <c r="E17" s="4">
         <v>46203</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="7" t="s">
         <v>26</v>
       </c>
       <c r="G17" s="3" t="s">
@@ -1309,7 +1312,7 @@
       <c r="E18" s="4">
         <v>46022</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="7" t="s">
         <v>26</v>
       </c>
       <c r="G18" s="5" t="s">
@@ -1341,7 +1344,7 @@
       <c r="E19" s="4">
         <v>46022</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="7" t="s">
         <v>26</v>
       </c>
       <c r="G19" s="5" t="s">
@@ -1373,7 +1376,7 @@
       <c r="E20" s="4">
         <v>46022</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="7" t="s">
         <v>26</v>
       </c>
       <c r="G20" s="5" t="s">
@@ -1405,7 +1408,7 @@
       <c r="E21" s="4">
         <v>46022</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="7" t="s">
         <v>26</v>
       </c>
       <c r="G21" s="5" t="s">
@@ -1437,7 +1440,7 @@
       <c r="E22" s="4">
         <v>46022</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="8">
         <v>150000</v>
       </c>
       <c r="G22" s="5" t="s">
@@ -1469,7 +1472,7 @@
       <c r="E23" s="4">
         <v>46387</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="7" t="s">
         <v>26</v>
       </c>
       <c r="G23" s="5" t="s">
@@ -1501,7 +1504,7 @@
       <c r="E24" s="4">
         <v>46387</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="7" t="s">
         <v>26</v>
       </c>
       <c r="G24" s="5" t="s">
@@ -1533,7 +1536,7 @@
       <c r="E25" s="4">
         <v>46022</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="7" t="s">
         <v>26</v>
       </c>
       <c r="G25" s="5" t="s">
